--- a/Base de données/données/PY.xlsx
+++ b/Base de données/données/PY.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>UNITED STATES</t>
   </si>
@@ -231,8 +231,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +269,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -347,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,6 +387,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,757 +563,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1316,24 +988,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
